--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2646.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2646.xlsx
@@ -354,7 +354,7 @@
         <v>1.562366509098307</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.466971981486688</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2646.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2646.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8287020879411934</v>
+        <v>1.677835822105408</v>
       </c>
       <c r="B1">
-        <v>1.562366509098307</v>
+        <v>2.968576192855835</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>1.466971981486688</v>
+        <v>0.2143935710191727</v>
       </c>
       <c r="E1">
-        <v>0.8581814886749509</v>
+        <v>0.6218926310539246</v>
       </c>
     </row>
   </sheetData>
